--- a/ManualSteps/Hierarchical_Clustering.xlsx
+++ b/ManualSteps/Hierarchical_Clustering.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mk194903/Desktop/Projects/ML/Jupyter/PySpark_Python-ML-Models/ManualSteps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EE8D26-836C-BE4C-88EB-995594DCA3BB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E522294-97C1-E244-BC28-18A726E8D0AC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="31660" windowHeight="19480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37180" yWindow="760" windowWidth="31660" windowHeight="19480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="48">
   <si>
     <t>P1</t>
   </si>
@@ -82,6 +82,93 @@
   </si>
   <si>
     <t>P10-P11</t>
+  </si>
+  <si>
+    <t>Step 3</t>
+  </si>
+  <si>
+    <t>P7-P8</t>
+  </si>
+  <si>
+    <t>Step 4</t>
+  </si>
+  <si>
+    <t>2.24 Distance</t>
+  </si>
+  <si>
+    <t>P2-P3-P4</t>
+  </si>
+  <si>
+    <t>Step 5</t>
+  </si>
+  <si>
+    <t>P9+P10-P11</t>
+  </si>
+  <si>
+    <t>P9-P10-P11</t>
+  </si>
+  <si>
+    <t>P7-P8+P9-P10-P11</t>
+  </si>
+  <si>
+    <t>P7-P8-P9-P10-P11</t>
+  </si>
+  <si>
+    <t>P2+P3-P4</t>
+  </si>
+  <si>
+    <t>P7+P8</t>
+  </si>
+  <si>
+    <t>P10+P11</t>
+  </si>
+  <si>
+    <t>P2-P3-P4+P5</t>
+  </si>
+  <si>
+    <t>P2-P3-P4-P5</t>
+  </si>
+  <si>
+    <t>Step 6</t>
+  </si>
+  <si>
+    <t>2.83 Distance</t>
+  </si>
+  <si>
+    <t>P2-P3-P4-P5+P6</t>
+  </si>
+  <si>
+    <t>P2-P3-P4-P5-P6</t>
+  </si>
+  <si>
+    <t>P2-P3-P4-P5-P6+P7-P8-P9-P10-P11</t>
+  </si>
+  <si>
+    <t>P2-P3-P4-P5-P6-P7-P8-P9-P10-P11</t>
+  </si>
+  <si>
+    <t>Step 7</t>
+  </si>
+  <si>
+    <t>Step 8</t>
+  </si>
+  <si>
+    <t>P1-P2-P3-P4-P5-P6-P7-P8-P9-P10-P11</t>
+  </si>
+  <si>
+    <t>P1+P2-P3-P4-P5-P6-P7-P8-P9-P10-P11</t>
+  </si>
+  <si>
+    <t>3 Distance</t>
+  </si>
+  <si>
+    <t>P3+P4</t>
+  </si>
+  <si>
+    <t>Step 9</t>
+  </si>
+  <si>
+    <t>Step 10</t>
   </si>
 </sst>
 </file>
@@ -805,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:Q65"/>
+  <dimension ref="A3:Q125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G129" sqref="G129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1579,6 +1666,9 @@
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>45</v>
+      </c>
       <c r="F44" s="5" t="s">
         <v>0</v>
       </c>
@@ -1967,6 +2057,9 @@
       </c>
     </row>
     <row r="57" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E57" t="s">
+        <v>31</v>
+      </c>
       <c r="F57" s="5" t="s">
         <v>0</v>
       </c>
@@ -2219,10 +2312,10 @@
         <v>0</v>
       </c>
       <c r="O64" s="7">
-        <v>2.23</v>
-      </c>
-    </row>
-    <row r="65" spans="6:15" x14ac:dyDescent="0.2">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="5:15" x14ac:dyDescent="0.2">
       <c r="F65" s="6" t="s">
         <v>18</v>
       </c>
@@ -2251,6 +2344,1018 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="O65" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E68" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" s="4"/>
+      <c r="G68" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M68" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E69" t="s">
+        <v>30</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G69" s="4">
+        <v>0</v>
+      </c>
+      <c r="H69" s="4">
+        <v>3</v>
+      </c>
+      <c r="I69" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J69" s="4">
+        <v>8.94</v>
+      </c>
+      <c r="K69" s="4">
+        <v>11.7</v>
+      </c>
+      <c r="L69" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="M69" s="4">
+        <v>6.7080000000000002</v>
+      </c>
+      <c r="N69" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="F70" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G70" s="4">
+        <v>3</v>
+      </c>
+      <c r="H70" s="4">
+        <v>0</v>
+      </c>
+      <c r="I70" s="8">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="J70" s="4">
+        <v>6.4</v>
+      </c>
+      <c r="K70" s="4">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="L70" s="7">
+        <v>3</v>
+      </c>
+      <c r="M70" s="4">
+        <v>6</v>
+      </c>
+      <c r="N70" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="F71" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H71" s="8">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I71" s="8">
+        <v>0</v>
+      </c>
+      <c r="J71" s="8">
+        <v>2.83</v>
+      </c>
+      <c r="K71" s="8">
+        <v>5.66</v>
+      </c>
+      <c r="L71" s="7">
+        <v>2.83</v>
+      </c>
+      <c r="M71" s="8">
+        <v>5</v>
+      </c>
+      <c r="N71" s="8">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="72" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="F72" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="4">
+        <v>8.9440000000000008</v>
+      </c>
+      <c r="H72" s="4">
+        <v>6.4</v>
+      </c>
+      <c r="I72" s="8">
+        <v>2.83</v>
+      </c>
+      <c r="J72" s="4">
+        <v>0</v>
+      </c>
+      <c r="K72" s="4">
+        <v>2.83</v>
+      </c>
+      <c r="L72" s="7">
+        <v>4</v>
+      </c>
+      <c r="M72" s="4">
+        <v>5.3849999999999998</v>
+      </c>
+      <c r="N72" s="8">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="73" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="F73" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G73" s="4">
+        <v>11.66</v>
+      </c>
+      <c r="H73" s="4">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="I73" s="8">
+        <v>5.66</v>
+      </c>
+      <c r="J73" s="4">
+        <v>2.83</v>
+      </c>
+      <c r="K73" s="4">
+        <v>0</v>
+      </c>
+      <c r="L73" s="7">
+        <v>6.32</v>
+      </c>
+      <c r="M73" s="4">
+        <v>7</v>
+      </c>
+      <c r="N73" s="8">
+        <v>9.06</v>
+      </c>
+    </row>
+    <row r="74" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="F74" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G74" s="7">
+        <v>4.2430000000000003</v>
+      </c>
+      <c r="H74" s="7">
+        <v>3</v>
+      </c>
+      <c r="I74" s="7">
+        <v>2.83</v>
+      </c>
+      <c r="J74" s="7">
+        <v>4</v>
+      </c>
+      <c r="K74" s="7">
+        <v>6.32</v>
+      </c>
+      <c r="L74" s="7">
+        <v>0</v>
+      </c>
+      <c r="M74" s="7">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="N74" s="7">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="75" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="F75" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G75" s="4">
+        <v>6.7080000000000002</v>
+      </c>
+      <c r="H75" s="4">
+        <v>6</v>
+      </c>
+      <c r="I75" s="8">
+        <v>5.39</v>
+      </c>
+      <c r="J75" s="4">
+        <v>5.39</v>
+      </c>
+      <c r="K75" s="4">
+        <v>7</v>
+      </c>
+      <c r="L75" s="7">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="M75" s="4">
+        <v>0</v>
+      </c>
+      <c r="N75" s="8">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="F76" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" s="8">
+        <v>4</v>
+      </c>
+      <c r="H76" s="8">
+        <v>5</v>
+      </c>
+      <c r="I76" s="8">
+        <v>5.66</v>
+      </c>
+      <c r="J76" s="8">
+        <v>7.07</v>
+      </c>
+      <c r="K76" s="8">
+        <v>9.06</v>
+      </c>
+      <c r="L76" s="7">
+        <v>2.83</v>
+      </c>
+      <c r="M76" s="8">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="N76" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E78" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E79" t="s">
+        <v>22</v>
+      </c>
+      <c r="F79" s="4"/>
+      <c r="G79" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L79" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M79" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E80" t="s">
+        <v>29</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G80" s="4">
+        <v>0</v>
+      </c>
+      <c r="H80" s="7">
+        <v>3</v>
+      </c>
+      <c r="I80" s="4">
+        <v>8.94</v>
+      </c>
+      <c r="J80" s="4">
+        <v>11.7</v>
+      </c>
+      <c r="K80" s="8">
+        <v>4.24</v>
+      </c>
+      <c r="L80" s="4">
+        <v>6.7080000000000002</v>
+      </c>
+      <c r="M80" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="F81" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G81" s="7">
+        <v>3</v>
+      </c>
+      <c r="H81" s="7">
+        <v>0</v>
+      </c>
+      <c r="I81" s="7">
+        <v>2.83</v>
+      </c>
+      <c r="J81" s="7">
+        <v>5.66</v>
+      </c>
+      <c r="K81" s="7">
+        <v>2.83</v>
+      </c>
+      <c r="L81" s="7">
+        <v>5</v>
+      </c>
+      <c r="M81" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="F82" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G82" s="4">
+        <v>8.9440000000000008</v>
+      </c>
+      <c r="H82" s="7">
+        <v>2.83</v>
+      </c>
+      <c r="I82" s="4">
+        <v>0</v>
+      </c>
+      <c r="J82" s="4">
+        <v>2.83</v>
+      </c>
+      <c r="K82" s="8">
+        <v>4</v>
+      </c>
+      <c r="L82" s="4">
+        <v>5.3849999999999998</v>
+      </c>
+      <c r="M82" s="8">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="83" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="F83" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="4">
+        <v>11.66</v>
+      </c>
+      <c r="H83" s="7">
+        <v>5.66</v>
+      </c>
+      <c r="I83" s="4">
+        <v>2.83</v>
+      </c>
+      <c r="J83" s="4">
+        <v>0</v>
+      </c>
+      <c r="K83" s="8">
+        <v>6.32</v>
+      </c>
+      <c r="L83" s="4">
+        <v>7</v>
+      </c>
+      <c r="M83" s="8">
+        <v>9.06</v>
+      </c>
+    </row>
+    <row r="84" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="F84" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G84" s="8">
+        <v>4.2430000000000003</v>
+      </c>
+      <c r="H84" s="7">
+        <v>2.83</v>
+      </c>
+      <c r="I84" s="8">
+        <v>4</v>
+      </c>
+      <c r="J84" s="8">
+        <v>6.32</v>
+      </c>
+      <c r="K84" s="8">
+        <v>0</v>
+      </c>
+      <c r="L84" s="8">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="M84" s="8">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="85" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="F85" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G85" s="4">
+        <v>6.7080000000000002</v>
+      </c>
+      <c r="H85" s="7">
+        <v>5.39</v>
+      </c>
+      <c r="I85" s="4">
+        <v>5.39</v>
+      </c>
+      <c r="J85" s="4">
+        <v>7</v>
+      </c>
+      <c r="K85" s="8">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="L85" s="4">
+        <v>0</v>
+      </c>
+      <c r="M85" s="8">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="F86" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G86" s="8">
+        <v>4</v>
+      </c>
+      <c r="H86" s="7">
+        <v>5</v>
+      </c>
+      <c r="I86" s="8">
+        <v>7.07</v>
+      </c>
+      <c r="J86" s="8">
+        <v>9.06</v>
+      </c>
+      <c r="K86" s="8">
+        <v>2.83</v>
+      </c>
+      <c r="L86" s="8">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="M86" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E88" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E89" t="s">
+        <v>22</v>
+      </c>
+      <c r="F89" s="4"/>
+      <c r="G89" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L89" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E90" t="s">
+        <v>25</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G90" s="4">
+        <v>0</v>
+      </c>
+      <c r="H90" s="8">
+        <v>3</v>
+      </c>
+      <c r="I90" s="4">
+        <v>8.94</v>
+      </c>
+      <c r="J90" s="4">
+        <v>11.7</v>
+      </c>
+      <c r="K90" s="8">
+        <v>4.24</v>
+      </c>
+      <c r="L90" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="F91" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G91" s="8">
+        <v>3</v>
+      </c>
+      <c r="H91" s="8">
+        <v>0</v>
+      </c>
+      <c r="I91" s="8">
+        <v>2.83</v>
+      </c>
+      <c r="J91" s="8">
+        <v>5.66</v>
+      </c>
+      <c r="K91" s="8">
+        <v>2.83</v>
+      </c>
+      <c r="L91" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="F92" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G92" s="4">
+        <v>8.9440000000000008</v>
+      </c>
+      <c r="H92" s="8">
+        <v>2.83</v>
+      </c>
+      <c r="I92" s="4">
+        <v>0</v>
+      </c>
+      <c r="J92" s="4">
+        <v>2.83</v>
+      </c>
+      <c r="K92" s="8">
+        <v>4</v>
+      </c>
+      <c r="L92" s="7">
+        <v>5.3849999999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="F93" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G93" s="4">
+        <v>11.66</v>
+      </c>
+      <c r="H93" s="8">
+        <v>5.66</v>
+      </c>
+      <c r="I93" s="4">
+        <v>2.83</v>
+      </c>
+      <c r="J93" s="4">
+        <v>0</v>
+      </c>
+      <c r="K93" s="8">
+        <v>6.32</v>
+      </c>
+      <c r="L93" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="F94" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G94" s="8">
+        <v>4.2430000000000003</v>
+      </c>
+      <c r="H94" s="8">
+        <v>2.83</v>
+      </c>
+      <c r="I94" s="8">
+        <v>4</v>
+      </c>
+      <c r="J94" s="8">
+        <v>6.32</v>
+      </c>
+      <c r="K94" s="8">
+        <v>0</v>
+      </c>
+      <c r="L94" s="7">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="F95" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G95" s="7">
+        <v>4</v>
+      </c>
+      <c r="H95" s="7">
+        <v>5</v>
+      </c>
+      <c r="I95" s="7">
+        <v>5.39</v>
+      </c>
+      <c r="J95" s="7">
+        <v>7</v>
+      </c>
+      <c r="K95" s="7">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="L95" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E97" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E98" t="s">
+        <v>22</v>
+      </c>
+      <c r="F98" s="4"/>
+      <c r="G98" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K98" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E99" t="s">
+        <v>27</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G99" s="4">
+        <v>0</v>
+      </c>
+      <c r="H99" s="8">
+        <v>3</v>
+      </c>
+      <c r="I99" s="4">
+        <v>8.94</v>
+      </c>
+      <c r="J99" s="4">
+        <v>11.7</v>
+      </c>
+      <c r="K99" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="F100" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G100" s="8">
+        <v>3</v>
+      </c>
+      <c r="H100" s="8">
+        <v>0</v>
+      </c>
+      <c r="I100" s="8">
+        <v>2.83</v>
+      </c>
+      <c r="J100" s="8">
+        <v>5.66</v>
+      </c>
+      <c r="K100" s="7">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="101" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="F101" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="4">
+        <v>8.9440000000000008</v>
+      </c>
+      <c r="H101" s="8">
+        <v>2.83</v>
+      </c>
+      <c r="I101" s="4">
+        <v>0</v>
+      </c>
+      <c r="J101" s="4">
+        <v>2.83</v>
+      </c>
+      <c r="K101" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="F102" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="4">
+        <v>11.66</v>
+      </c>
+      <c r="H102" s="8">
+        <v>5.66</v>
+      </c>
+      <c r="I102" s="4">
+        <v>2.83</v>
+      </c>
+      <c r="J102" s="4">
+        <v>0</v>
+      </c>
+      <c r="K102" s="7">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="103" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="F103" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G103" s="7">
+        <v>4</v>
+      </c>
+      <c r="H103" s="7">
+        <v>2.83</v>
+      </c>
+      <c r="I103" s="7">
+        <v>4</v>
+      </c>
+      <c r="J103" s="7">
+        <v>6.32</v>
+      </c>
+      <c r="K103" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E105" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="106" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E106" t="s">
+        <v>35</v>
+      </c>
+      <c r="F106" s="4"/>
+      <c r="G106" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J106" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E107" t="s">
+        <v>32</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G107" s="4">
+        <v>0</v>
+      </c>
+      <c r="H107" s="7">
+        <v>3</v>
+      </c>
+      <c r="I107" s="4">
+        <v>11.7</v>
+      </c>
+      <c r="J107" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="F108" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G108" s="7">
+        <v>3</v>
+      </c>
+      <c r="H108" s="7">
+        <v>0</v>
+      </c>
+      <c r="I108" s="7">
+        <v>2.83</v>
+      </c>
+      <c r="J108" s="7">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="109" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="F109" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G109" s="4">
+        <v>11.66</v>
+      </c>
+      <c r="H109" s="7">
+        <v>2.83</v>
+      </c>
+      <c r="I109" s="4">
+        <v>0</v>
+      </c>
+      <c r="J109" s="8">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="110" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="F110" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G110" s="8">
+        <v>4</v>
+      </c>
+      <c r="H110" s="7">
+        <v>2.83</v>
+      </c>
+      <c r="I110" s="8">
+        <v>6.32</v>
+      </c>
+      <c r="J110" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E112" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="113" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E113" t="s">
+        <v>35</v>
+      </c>
+      <c r="F113" s="4"/>
+      <c r="G113" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I113" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E114" t="s">
+        <v>36</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G114" s="4">
+        <v>0</v>
+      </c>
+      <c r="H114" s="7">
+        <v>3</v>
+      </c>
+      <c r="I114" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F115" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G115" s="7">
+        <v>3</v>
+      </c>
+      <c r="H115" s="7">
+        <v>0</v>
+      </c>
+      <c r="I115" s="7">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="116" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F116" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G116" s="8">
+        <v>4</v>
+      </c>
+      <c r="H116" s="7">
+        <v>2.83</v>
+      </c>
+      <c r="I116" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E118" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="119" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E119" t="s">
+        <v>35</v>
+      </c>
+      <c r="F119" s="4"/>
+      <c r="G119" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="120" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E120" t="s">
+        <v>38</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G120" s="4">
+        <v>0</v>
+      </c>
+      <c r="H120" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F121" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G121" s="7">
+        <v>3</v>
+      </c>
+      <c r="H121" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E123" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="124" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E124" t="s">
+        <v>44</v>
+      </c>
+      <c r="F124" s="4"/>
+      <c r="G124" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="125" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E125" t="s">
+        <v>43</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G125" s="4">
         <v>0</v>
       </c>
     </row>
